--- a/outputs-r202/g__Bifidobacterium.xlsx
+++ b/outputs-r202/g__Bifidobacterium.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF4"/>
+  <dimension ref="A1:DG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,6 +985,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1321,6 +1326,11 @@
           <t>s__Bifidobacterium felsineum</t>
         </is>
       </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium felsineum(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1657,6 +1667,11 @@
           <t>s__Bifidobacterium globosum</t>
         </is>
       </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium globosum</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1989,6 +2004,11 @@
         <v>0.9960569613595892</v>
       </c>
       <c r="DF4" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium merycicum</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
         <is>
           <t>s__Bifidobacterium merycicum</t>
         </is>

--- a/outputs-r202/g__Bifidobacterium.xlsx
+++ b/outputs-r202/g__Bifidobacterium.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF3"/>
+  <dimension ref="A1:DG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,6 +985,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1321,6 +1326,11 @@
           <t>s__Bifidobacterium globosum</t>
         </is>
       </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium globosum</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1653,6 +1663,11 @@
         <v>0.996333831401777</v>
       </c>
       <c r="DF3" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium merycicum</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
         <is>
           <t>s__Bifidobacterium merycicum</t>
         </is>
